--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -908,10 +908,19 @@
 Dim.HealthFactorType.CategoryHealthFactorTypeIEN</t>
   </si>
   <si>
-    <t>SocialHistory.SocialHabit,SocialHistory.SocialHabitCategory,SocialHistory.Extension[SocialHistoryExtension].Category,SocialHistory.Extension[SocialHistoryExtension].QuantityLabel,SocialHistory.SocialHabitCategory.Description,Vaccination.OrderItem,FamilyHistory.Diagnosis,FamilyHistory.Extension[FamilyHistoryExtension].Category,FamilyHistory.Diagnosis.Description</t>
-  </si>
-  <si>
-    <t>healthFactor.category (&gt;9999999.64-.03),healthFactor.name (&gt;9999999.64-.01)</t>
+    <t>SocialHistory.SocialHabit
+SocialHistory.SocialHabitCategory
+SocialHistory.Extension[SocialHistoryExtension].Category
+SocialHistory.Extension[SocialHistoryExtension].QuantityLabel
+SocialHistory.SocialHabitCategory.Description
+Vaccination.OrderItem
+FamilyHistory.Diagnosis
+FamilyHistory.Extension[FamilyHistoryExtension].Category
+FamilyHistory.Diagnosis.Description</t>
+  </si>
+  <si>
+    <t>healthFactor.category (&gt;9999999.64-.03)
+healthFactor.name (&gt;9999999.64-.01)</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1014,13 +1023,28 @@
     <t>1246: reference based on V HEALTH FACTORS - VISIT (9000010.23-.03)</t>
   </si>
   <si>
-    <t>HF.HealthFactor.VisitDateTime,HF.HealthFactor.VisitIEN</t>
-  </si>
-  <si>
-    <t>SocialHistory.EncounterNumber,SocialHistory.EnteredAt,SocialHistory.EnteredBy,SocialHistory.EnteredOn,Vaccination.EncounterNumber,Vaccination.EnteredAt,Vaccination.EnteredBy,Vaccination.EnteredOn,Vaccination.Administration.AdministeredAtLocation,FamilyHistory.EncounterNumber,FamilyHistory.EnteredAt,FamilyHistory.EnteredBy,FamilyHistory.EnteredOn</t>
-  </si>
-  <si>
-    <t>healthFactor.encounter,healthFactor.facility (&gt;9000010-.06),healthFactor.recorded (&gt;9000010-.01)</t>
+    <t>HF.HealthFactor.VisitDateTime
+HF.HealthFactor.VisitIEN</t>
+  </si>
+  <si>
+    <t>SocialHistory.EncounterNumber
+SocialHistory.EnteredAt
+SocialHistory.EnteredBy
+SocialHistory.EnteredOn
+Vaccination.EncounterNumber
+Vaccination.EnteredAt
+Vaccination.EnteredBy
+Vaccination.EnteredOn
+Vaccination.Administration.AdministeredAtLocation
+FamilyHistory.EncounterNumber
+FamilyHistory.EnteredAt
+FamilyHistory.EnteredBy
+FamilyHistory.EnteredOn</t>
+  </si>
+  <si>
+    <t>healthFactor.encounter
+healthFactor.facility (&gt;9000010-.06)
+healthFactor.recorded (&gt;9000010-.01)</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1089,7 +1113,10 @@
     <t>HF.HealthFactor.EventDateTime</t>
   </si>
   <si>
-    <t>SocialHistory.FromTime,Vaccination.FromTime,Vaccination.ToTime,FamilyHistory.FromTime</t>
+    <t>SocialHistory.FromTime
+Vaccination.FromTime
+Vaccination.ToTime
+FamilyHistory.FromTime</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1204,10 +1231,19 @@
   </si>
   <si>
     <t>HF.HealthFactor.HealthFactorTypeIEN
-Dim.HealthFactorType.HealthFactorCategory,Dim.HealthFactorType.HealthFactorType</t>
-  </si>
-  <si>
-    <t>SocialHistory.SocialHabit,SocialHistory.SocialHabitCategory,SocialHistory.Extension[SocialHistoryExtension].Category,SocialHistory.Extension[SocialHistoryExtension].QuantityLabel,SocialHistory.SocialHabitCategory.Description,Vaccination.OrderItem,FamilyHistory.Diagnosis,FamilyHistory.Extension[FamilyHistoryExtension].Category,FamilyHistory.Diagnosis.Description
+Dim.HealthFactorType.HealthFactorCategory
+Dim.HealthFactorType.HealthFactorType</t>
+  </si>
+  <si>
+    <t>SocialHistory.SocialHabit
+SocialHistory.SocialHabitCategory
+SocialHistory.Extension[SocialHistoryExtension].Category
+SocialHistory.Extension[SocialHistoryExtension].QuantityLabel
+SocialHistory.SocialHabitCategory.Description
+Vaccination.OrderItem
+FamilyHistory.Diagnosis
+FamilyHistory.Extension[FamilyHistoryExtension].Category
+FamilyHistory.Diagnosis.Description
 Vaccination.OrderItem[Order].Description</t>
   </si>
   <si>
@@ -1440,7 +1476,9 @@
     <t>HF.HealthFactor.Comments</t>
   </si>
   <si>
-    <t>SocialHistory.SocialHabitComments,Vaccination.Administration.RefusalReason,FamilyHistory.NoteText</t>
+    <t>SocialHistory.SocialHabitComments
+Vaccination.Administration.RefusalReason
+FamilyHistory.NoteText</t>
   </si>
   <si>
     <t>healthFactor.comment</t>
@@ -2234,9 +2272,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="126.30859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="68.9609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="79.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.08984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SmokingStatusObservation.xlsx
+++ b/docs/StructureDefinition-SmokingStatusObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
